--- a/mean_results/avg_val_results_80_20.xlsx
+++ b/mean_results/avg_val_results_80_20.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RandomForestClassifier</t>
+          <t>DecisionTreeClassifier-val</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4976190476190476</v>
+        <v>0.58</v>
       </c>
       <c r="D2" t="n">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5112172141583906</v>
+        <v>0.5657272727272727</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -518,13 +518,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6476168929110105</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="E3" t="n">
-        <v>0.618146310081794</v>
+        <v>0.6622611084567607</v>
       </c>
       <c r="F3" t="n">
         <v>14</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.575</v>
+        <v>0.625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.575</v>
+        <v>0.625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.575</v>
+        <v>0.625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.575</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5726179702650291</v>
+        <v>0.6328571428571428</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.6185714285714285</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5646817621200924</v>
+        <v>0.6139941905920167</v>
       </c>
       <c r="F5" t="n">
         <v>24</v>
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.585117790706026</v>
+        <v>0.6416666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.575</v>
+        <v>0.625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5735925201137092</v>
+        <v>0.6220386769028073</v>
       </c>
       <c r="F6" t="n">
         <v>24</v>
@@ -593,7 +593,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ElasticNet</t>
+          <t>RandomForestClassifier-val</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4784848484848485</v>
+        <v>0.4976190476190476</v>
       </c>
       <c r="D7" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4977489177489177</v>
+        <v>0.5112172141583906</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6390109890109891</v>
+        <v>0.6476168929110105</v>
       </c>
       <c r="D8" t="n">
         <v>0.6</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6183557183557185</v>
+        <v>0.618146310081794</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="10">
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5587479187479187</v>
+        <v>0.5726179702650291</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.558052318052318</v>
+        <v>0.5646817621200924</v>
       </c>
       <c r="F10" t="n">
         <v>24</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5721250971250972</v>
+        <v>0.585117790706026</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5681028847695515</v>
+        <v>0.5735925201137092</v>
       </c>
       <c r="F11" t="n">
         <v>24</v>
@@ -697,7 +697,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>LGBMClassifier</t>
+          <t>ElasticNet-val</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4964743589743589</v>
+        <v>0.4725641025641026</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5383559232529483</v>
+        <v>0.5022134387351779</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6489393939393939</v>
+        <v>0.6244588744588745</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5428571428571429</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5854024596093561</v>
+        <v>0.5871208791208791</v>
       </c>
       <c r="F13" t="n">
         <v>14</v>
@@ -746,16 +746,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="15">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5727068764568765</v>
+        <v>0.5485114885114885</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5485714285714286</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5618791914311523</v>
+        <v>0.5446671589280285</v>
       </c>
       <c r="F15" t="n">
         <v>24</v>
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5854122960372961</v>
+        <v>0.5611693861693862</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5657997361275195</v>
+        <v>0.5517427789601703</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
@@ -801,7 +801,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>SVC</t>
+          <t>NeuralNetClassifier-val</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4351398601398602</v>
+        <v>0.3875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.46</v>
+        <v>0.5199999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4420979986197377</v>
+        <v>0.4428701733049559</v>
       </c>
       <c r="F17" t="n">
         <v>10</v>
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5969405594405595</v>
+        <v>0.6477272727272727</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5798518518518518</v>
+        <v>0.6013544350386455</v>
       </c>
       <c r="F18" t="n">
         <v>14</v>
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.525</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D19" t="n">
-        <v>0.525</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E19" t="n">
-        <v>0.525</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>0.525</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -870,13 +870,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5160402097902098</v>
+        <v>0.5176136363636363</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5157142857142858</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5109749252357948</v>
+        <v>0.5221123041718008</v>
       </c>
       <c r="F20" t="n">
         <v>24</v>
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5295236013986014</v>
+        <v>0.5392992424242424</v>
       </c>
       <c r="D21" t="n">
-        <v>0.525</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5224544130051376</v>
+        <v>0.5353193259829416</v>
       </c>
       <c r="F21" t="n">
         <v>24</v>
@@ -905,7 +905,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeClassifier</t>
+          <t>NeuralNetClassifier</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3935353535353535</v>
+        <v>0.2916727716727717</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5761904761904761</v>
+        <v>0.5988847117794486</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5726007326007326</v>
+        <v>0.6935574229691877</v>
       </c>
       <c r="F23" t="n">
         <v>14</v>
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5</v>
+        <v>0.575</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5</v>
+        <v>0.575</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5</v>
+        <v>0.575</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="25">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4830952380952381</v>
+        <v>0.5394423558897243</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.5242857142857142</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4830680430680431</v>
+        <v>0.4926150973209797</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -994,13 +994,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4986111111111111</v>
+        <v>0.5493494152046784</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5</v>
+        <v>0.575</v>
       </c>
       <c r="E26" t="n">
-        <v>0.497990157990158</v>
+        <v>0.5261054849290143</v>
       </c>
       <c r="F26" t="n">
         <v>24</v>
@@ -1009,7 +1009,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>MLPClassifier</t>
+          <t>SVC-val</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2</v>
+        <v>0.4351398601398602</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02</v>
+        <v>0.46</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03636363636363636</v>
+        <v>0.4420979986197377</v>
       </c>
       <c r="F27" t="n">
         <v>10</v>
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5884057971014494</v>
+        <v>0.5969405594405595</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7408250355618776</v>
+        <v>0.5798518518518518</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
@@ -1058,16 +1058,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.525</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.525</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.525</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="30">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.3942028985507247</v>
+        <v>0.5160402097902098</v>
       </c>
       <c r="D30" t="n">
-        <v>0.51</v>
+        <v>0.5157142857142858</v>
       </c>
       <c r="E30" t="n">
-        <v>0.388594335962757</v>
+        <v>0.5109749252357948</v>
       </c>
       <c r="F30" t="n">
         <v>24</v>
@@ -1098,26 +1098,341 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>0.5295236013986014</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5224544130051376</v>
+      </c>
+      <c r="F31" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>LGBMClassifier</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Did not Play: 0</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3976373626373626</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.4392642140468228</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Played in the NHL: 1</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5576623376623376</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4972987012987013</v>
+      </c>
+      <c r="F33" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.4776498501498502</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.4785714285714285</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.468281457672762</v>
+      </c>
+      <c r="F35" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.4909852647352648</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.473117664943752</v>
+      </c>
+      <c r="F36" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>LGBMClassifier-val</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Did not Play: 0</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3976373626373626</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4392642140468228</v>
+      </c>
+      <c r="F37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Played in the NHL: 1</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5576623376623376</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.4972987012987013</v>
+      </c>
+      <c r="F38" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4776498501498502</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.4785714285714285</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.468281457672762</v>
+      </c>
+      <c r="F40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4909852647352648</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.473117664943752</v>
+      </c>
+      <c r="F41" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>MLPClassifier-val</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Did not Play: 0</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Played in the NHL: 1</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5884057971014494</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7408250355618776</v>
+      </c>
+      <c r="F43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5916666666666667</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5916666666666667</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5916666666666667</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5916666666666667</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.3942028985507247</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.388594335962757</v>
+      </c>
+      <c r="F45" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>0.4265700483091788</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D46" t="n">
         <v>0.5916666666666667</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E46" t="n">
         <v>0.4472994525626104</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F46" t="n">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A42:A46"/>
     <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A32:A36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mean_results/avg_val_results_80_20.xlsx
+++ b/mean_results/avg_val_results_80_20.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeClassifier-val</t>
+          <t>DecisionTreeClassifier</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.58</v>
+        <v>0.5628571428571428</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5657272727272727</v>
+        <v>0.5103743315508021</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -518,13 +518,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.6459383753501401</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6622611084567607</v>
+        <v>0.6685749734136831</v>
       </c>
       <c r="F3" t="n">
         <v>14</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.625</v>
+        <v>0.6083333333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.625</v>
+        <v>0.6083333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.625</v>
+        <v>0.6083333333333334</v>
       </c>
       <c r="F4" t="n">
-        <v>0.625</v>
+        <v>0.6083333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6328571428571428</v>
+        <v>0.6043977591036415</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6185714285714285</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6139941905920167</v>
+        <v>0.5894746524822426</v>
       </c>
       <c r="F5" t="n">
         <v>24</v>
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6416666666666666</v>
+        <v>0.6113211951447246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.625</v>
+        <v>0.6083333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6220386769028073</v>
+        <v>0.6026580393041494</v>
       </c>
       <c r="F6" t="n">
         <v>24</v>
@@ -593,7 +593,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RandomForestClassifier-val</t>
+          <t>LinearTreeClassifier</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4976190476190476</v>
+        <v>0.5062937062937063</v>
       </c>
       <c r="D7" t="n">
-        <v>0.54</v>
+        <v>0.6199999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5112172141583906</v>
+        <v>0.5553830227743271</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6476168929110105</v>
+        <v>0.6825574425574426</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E8" t="n">
-        <v>0.618146310081794</v>
+        <v>0.6197566137566138</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.575</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.575</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.575</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>0.575</v>
+        <v>0.5916666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5726179702650291</v>
+        <v>0.5944255744255744</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.5957142857142858</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5646817621200924</v>
+        <v>0.5875698182654705</v>
       </c>
       <c r="F10" t="n">
         <v>24</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.585117790706026</v>
+        <v>0.6091142191142191</v>
       </c>
       <c r="D11" t="n">
-        <v>0.575</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5735925201137092</v>
+        <v>0.5929342841806611</v>
       </c>
       <c r="F11" t="n">
         <v>24</v>
@@ -697,7 +697,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ElasticNet-val</t>
+          <t>LinearBoostClassifier</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4725641025641026</v>
+        <v>0.4600421800421801</v>
       </c>
       <c r="D12" t="n">
-        <v>0.54</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5022134387351779</v>
+        <v>0.5008490792197886</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6244588744588745</v>
+        <v>0.6147940947940949</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5571428571428572</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5871208791208791</v>
+        <v>0.5554060747404076</v>
       </c>
       <c r="F13" t="n">
         <v>14</v>
@@ -746,16 +746,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.55</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>0.55</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>0.55</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>0.55</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5485114885114885</v>
+        <v>0.5374181374181374</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5485714285714286</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5446671589280285</v>
+        <v>0.5281275769800982</v>
       </c>
       <c r="F15" t="n">
         <v>24</v>
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5611693861693862</v>
+        <v>0.5503141303141303</v>
       </c>
       <c r="D16" t="n">
-        <v>0.55</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5517427789601703</v>
+        <v>0.532673993273483</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
@@ -801,7 +801,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>NeuralNetClassifier-val</t>
+          <t>NeuralNetClassifier</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3875</v>
+        <v>0.48</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5199999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4428701733049559</v>
+        <v>0.2916727716727717</v>
       </c>
       <c r="F17" t="n">
         <v>10</v>
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6477272727272727</v>
+        <v>0.5988847117794486</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6013544350386455</v>
+        <v>0.6935574229691877</v>
       </c>
       <c r="F18" t="n">
         <v>14</v>
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="20">
@@ -870,13 +870,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5176136363636363</v>
+        <v>0.5394423558897243</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.5242857142857142</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5221123041718008</v>
+        <v>0.4926150973209797</v>
       </c>
       <c r="F20" t="n">
         <v>24</v>
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5392992424242424</v>
+        <v>0.5493494152046784</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5353193259829416</v>
+        <v>0.5261054849290143</v>
       </c>
       <c r="F21" t="n">
         <v>24</v>
@@ -905,7 +905,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>NeuralNetClassifier</t>
+          <t>SVC</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.48</v>
+        <v>0.4351398601398602</v>
       </c>
       <c r="D22" t="n">
-        <v>0.22</v>
+        <v>0.46</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2916727716727717</v>
+        <v>0.4420979986197377</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5988847117794486</v>
+        <v>0.5969405594405595</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6935574229691877</v>
+        <v>0.5798518518518518</v>
       </c>
       <c r="F23" t="n">
         <v>14</v>
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.575</v>
+        <v>0.525</v>
       </c>
       <c r="D24" t="n">
-        <v>0.575</v>
+        <v>0.525</v>
       </c>
       <c r="E24" t="n">
-        <v>0.575</v>
+        <v>0.525</v>
       </c>
       <c r="F24" t="n">
-        <v>0.575</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="25">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5394423558897243</v>
+        <v>0.5160402097902098</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5242857142857142</v>
+        <v>0.5157142857142858</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4926150973209797</v>
+        <v>0.5109749252357948</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -994,13 +994,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5493494152046784</v>
+        <v>0.5295236013986014</v>
       </c>
       <c r="D26" t="n">
-        <v>0.575</v>
+        <v>0.525</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5261054849290143</v>
+        <v>0.5224544130051376</v>
       </c>
       <c r="F26" t="n">
         <v>24</v>
@@ -1009,7 +1009,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>SVC-val</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4351398601398602</v>
+        <v>0.4344108669108669</v>
       </c>
       <c r="D27" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4420979986197377</v>
+        <v>0.4762506600950537</v>
       </c>
       <c r="F27" t="n">
         <v>10</v>
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5969405594405595</v>
+        <v>0.6065584415584415</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5798518518518518</v>
+        <v>0.5413327362292879</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
@@ -1058,16 +1058,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.525</v>
+        <v>0.5166666666666666</v>
       </c>
       <c r="D29" t="n">
-        <v>0.525</v>
+        <v>0.5166666666666666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.525</v>
+        <v>0.5166666666666666</v>
       </c>
       <c r="F29" t="n">
-        <v>0.525</v>
+        <v>0.5166666666666666</v>
       </c>
     </row>
     <row r="30">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.5160402097902098</v>
+        <v>0.5204846542346543</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5157142857142858</v>
+        <v>0.52</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5109749252357948</v>
+        <v>0.5087916981621708</v>
       </c>
       <c r="F30" t="n">
         <v>24</v>
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5295236013986014</v>
+        <v>0.5348302854552854</v>
       </c>
       <c r="D31" t="n">
-        <v>0.525</v>
+        <v>0.5166666666666666</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5224544130051376</v>
+        <v>0.5142152045066903</v>
       </c>
       <c r="F31" t="n">
         <v>24</v>
@@ -1113,7 +1113,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>LGBMClassifier</t>
+          <t>RandomForestClassifier</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.3976373626373626</v>
+        <v>0.4233333333333333</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4392642140468228</v>
+        <v>0.4149999999999999</v>
       </c>
       <c r="F32" t="n">
         <v>10</v>
@@ -1142,13 +1142,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5576623376623376</v>
+        <v>0.5865079365079365</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.5857142857142856</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4972987012987013</v>
+        <v>0.5825549450549451</v>
       </c>
       <c r="F33" t="n">
         <v>14</v>
@@ -1162,16 +1162,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.475</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="D34" t="n">
-        <v>0.475</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>0.475</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="F34" t="n">
-        <v>0.475</v>
+        <v>0.5166666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.4776498501498502</v>
+        <v>0.5049206349206349</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4785714285714285</v>
+        <v>0.5028571428571429</v>
       </c>
       <c r="E35" t="n">
-        <v>0.468281457672762</v>
+        <v>0.4987774725274726</v>
       </c>
       <c r="F35" t="n">
         <v>24</v>
@@ -1202,13 +1202,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.4909852647352648</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="D36" t="n">
-        <v>0.475</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="E36" t="n">
-        <v>0.473117664943752</v>
+        <v>0.5127403846153846</v>
       </c>
       <c r="F36" t="n">
         <v>24</v>
@@ -1217,7 +1217,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>LGBMClassifier-val</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.3976373626373626</v>
+        <v>0.4211965811965812</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4392642140468228</v>
+        <v>0.4737914351095129</v>
       </c>
       <c r="F37" t="n">
         <v>10</v>
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.5576623376623376</v>
+        <v>0.6148917748917748</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4972987012987013</v>
+        <v>0.5209783679588778</v>
       </c>
       <c r="F38" t="n">
         <v>14</v>
@@ -1266,16 +1266,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.475</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="D39" t="n">
-        <v>0.475</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="E39" t="n">
-        <v>0.475</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="F39" t="n">
-        <v>0.475</v>
+        <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="40">
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4776498501498502</v>
+        <v>0.518044178044178</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4785714285714285</v>
+        <v>0.5157142857142858</v>
       </c>
       <c r="E40" t="n">
-        <v>0.468281457672762</v>
+        <v>0.4973849015341953</v>
       </c>
       <c r="F40" t="n">
         <v>24</v>
@@ -1306,13 +1306,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.4909852647352648</v>
+        <v>0.5341854441854442</v>
       </c>
       <c r="D41" t="n">
-        <v>0.475</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="E41" t="n">
-        <v>0.473117664943752</v>
+        <v>0.501317145938309</v>
       </c>
       <c r="F41" t="n">
         <v>24</v>
@@ -1321,7 +1321,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>MLPClassifier-val</t>
+          <t>LGBMClassifier</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1330,13 +1330,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.2</v>
+        <v>0.3976373626373626</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="E42" t="n">
-        <v>0.03636363636363636</v>
+        <v>0.4392642140468228</v>
       </c>
       <c r="F42" t="n">
         <v>10</v>
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5884057971014494</v>
+        <v>0.5576623376623376</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7408250355618776</v>
+        <v>0.4972987012987013</v>
       </c>
       <c r="F43" t="n">
         <v>14</v>
@@ -1370,16 +1370,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="45">
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.3942028985507247</v>
+        <v>0.4776498501498502</v>
       </c>
       <c r="D45" t="n">
-        <v>0.51</v>
+        <v>0.4785714285714285</v>
       </c>
       <c r="E45" t="n">
-        <v>0.388594335962757</v>
+        <v>0.468281457672762</v>
       </c>
       <c r="F45" t="n">
         <v>24</v>
@@ -1410,26 +1410,131 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.4265700483091788</v>
+        <v>0.4909852647352648</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4472994525626104</v>
+        <v>0.473117664943752</v>
       </c>
       <c r="F46" t="n">
         <v>24</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>XGBClassifier</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>Did not Play: 0</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Played in the NHL: 1</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="F48" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="F50" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.4298245614035087</v>
+      </c>
+      <c r="F51" t="n">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A32:A36"/>

--- a/mean_results/avg_val_results_80_20.xlsx
+++ b/mean_results/avg_val_results_80_20.xlsx
@@ -1528,16 +1528,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A12:A16"/>
     <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A32:A36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
